--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -543,10 +543,10 @@
         <v>0.18062</v>
       </c>
       <c r="I2">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J2">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N2">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P2">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q2">
-        <v>2.026964340304444</v>
+        <v>3.062196841097778</v>
       </c>
       <c r="R2">
-        <v>18.24267906274</v>
+        <v>27.55977156988</v>
       </c>
       <c r="S2">
-        <v>0.1746985368390123</v>
+        <v>0.2472303518437578</v>
       </c>
       <c r="T2">
-        <v>0.1746985368390124</v>
+        <v>0.2472303518437578</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.18062</v>
       </c>
       <c r="I3">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J3">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N3">
         <v>131.049072</v>
       </c>
       <c r="O3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P3">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q3">
         <v>2.63000926496</v>
       </c>
       <c r="R3">
-        <v>23.67008338464001</v>
+        <v>23.67008338464</v>
       </c>
       <c r="S3">
-        <v>0.2266733367359334</v>
+        <v>0.2123371388807601</v>
       </c>
       <c r="T3">
-        <v>0.2266733367359334</v>
+        <v>0.2123371388807601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.18062</v>
       </c>
       <c r="I4">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J4">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N4">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P4">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q4">
-        <v>2.061864820424444</v>
+        <v>2.206189351837778</v>
       </c>
       <c r="R4">
-        <v>18.55678338382</v>
+        <v>19.85570416654</v>
       </c>
       <c r="S4">
-        <v>0.1777065141826233</v>
+        <v>0.1781194998206811</v>
       </c>
       <c r="T4">
-        <v>0.1777065141826233</v>
+        <v>0.1781194998206811</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.18062</v>
       </c>
       <c r="I5">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="J5">
-        <v>0.6707043100791313</v>
+        <v>0.7198826633506309</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N5">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P5">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q5">
-        <v>1.063102648446667</v>
+        <v>1.018076169611111</v>
       </c>
       <c r="R5">
-        <v>9.56792383602</v>
+        <v>9.162685526500001</v>
       </c>
       <c r="S5">
-        <v>0.09162592232156222</v>
+        <v>0.08219567280543195</v>
       </c>
       <c r="T5">
-        <v>0.09162592232156222</v>
+        <v>0.08219567280543197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H6">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I6">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J6">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.66677566666667</v>
+        <v>50.86142466666666</v>
       </c>
       <c r="N6">
-        <v>101.000327</v>
+        <v>152.584274</v>
       </c>
       <c r="O6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613803</v>
       </c>
       <c r="P6">
-        <v>0.26047027611676</v>
+        <v>0.3434314568613804</v>
       </c>
       <c r="Q6">
-        <v>0.9951786664481111</v>
+        <v>1.191547549474222</v>
       </c>
       <c r="R6">
-        <v>8.956607998033</v>
+        <v>10.723927945268</v>
       </c>
       <c r="S6">
-        <v>0.08577173927774763</v>
+        <v>0.09620110501762254</v>
       </c>
       <c r="T6">
-        <v>0.08577173927774766</v>
+        <v>0.09620110501762255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H7">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I7">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J7">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.68302400000001</v>
+        <v>43.683024</v>
       </c>
       <c r="N7">
         <v>131.049072</v>
       </c>
       <c r="O7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="P7">
-        <v>0.3379631431162116</v>
+        <v>0.294960761928139</v>
       </c>
       <c r="Q7">
-        <v>1.291255628432</v>
+        <v>1.023376764256</v>
       </c>
       <c r="R7">
-        <v>11.621300655888</v>
+        <v>9.210390878303999</v>
       </c>
       <c r="S7">
-        <v>0.1112898063802782</v>
+        <v>0.0826236230473789</v>
       </c>
       <c r="T7">
-        <v>0.1112898063802782</v>
+        <v>0.08262362304737891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H8">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I8">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J8">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.24645366666667</v>
+        <v>36.64360566666667</v>
       </c>
       <c r="N8">
-        <v>102.739361</v>
+        <v>109.930817</v>
       </c>
       <c r="O8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192034</v>
       </c>
       <c r="P8">
-        <v>0.2649550800734485</v>
+        <v>0.2474285170192035</v>
       </c>
       <c r="Q8">
-        <v>1.012313754902111</v>
+        <v>0.8584619644882221</v>
       </c>
       <c r="R8">
-        <v>9.110823794119002</v>
+        <v>7.726157680394</v>
       </c>
       <c r="S8">
-        <v>0.08724856589082522</v>
+        <v>0.06930901719852235</v>
       </c>
       <c r="T8">
-        <v>0.08724856589082523</v>
+        <v>0.06930901719852235</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02955966666666667</v>
+        <v>0.02342733333333333</v>
       </c>
       <c r="H9">
-        <v>0.08867900000000001</v>
+        <v>0.070282</v>
       </c>
       <c r="I9">
-        <v>0.3292956899208686</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="J9">
-        <v>0.3292956899208687</v>
+        <v>0.2801173366493691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.657557</v>
+        <v>16.90969166666667</v>
       </c>
       <c r="N9">
-        <v>52.972671</v>
+        <v>50.729075</v>
       </c>
       <c r="O9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="P9">
-        <v>0.1366115006935798</v>
+        <v>0.1141792641912772</v>
       </c>
       <c r="Q9">
-        <v>0.5219514990676667</v>
+        <v>0.3961489832388889</v>
       </c>
       <c r="R9">
-        <v>4.697563491609</v>
+        <v>3.56534084915</v>
       </c>
       <c r="S9">
-        <v>0.04498557837201758</v>
+        <v>0.03198359138584524</v>
       </c>
       <c r="T9">
-        <v>0.04498557837201759</v>
+        <v>0.03198359138584525</v>
       </c>
     </row>
   </sheetData>
